--- a/similarities/split_global/harmonic_similarity_timestamps_15.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,234 +484,258 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3'], ['Bb:min', 'F:7', 'Bb:min'], ['Ab', 'Eb:7', 'Ab'], ['Eb:7', 'Ab', 'Ab:7']]</t>
+          <t>['Bb:7', 'Eb', 'Ab']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['G:min/D', 'D:7', 'G:min'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:7']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:06.840000'), ('0:00:43.680000', '0:00:44.980000'), ('0:00:46.750000', '0:00:47.790000'), ('0:00:14.910000', '0:00:20.600000')]</t>
+          <t>('0:01:33.270000', '0:01:42.970000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:20.780000', '0:00:31.600000'), ('0:00:55.140000', '0:01:03.040000'), ('0:01:12.640000', '0:01:23.380000'), ('0:01:13.740000', '0:01:27.340000')]</t>
+          <t>('0:00:15', '0:00:20.280000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=43.68', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=93.27</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=20.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=55.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=73.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=15.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E']]</t>
+          <t>['Ab', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'F:maj/A', 'C:maj/G']]</t>
+          <t>['E', 'E:7/3', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:20.614081', '0:00:24.271224')]</t>
+          <t>('0:01:21.850000', '0:01:27.540000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:29.680000', '0:00:32.260000')]</t>
+          <t>('0:00:20.410362', '0:00:24.856984')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-99#t=20.614081']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=81.85</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=29.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_189</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'Bb:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'Eb/5']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:18.156000', '0:00:21.224000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:26.244920', '0:00:35.300702')]</t>
+          <t>('0:00:16.200000', '0:00:18.460000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=18.156']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-189#t=26.24492']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>jaah_58</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>jaah_35</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F#:min7', 'B:7', 'E']]</t>
+          <t>['C:min7', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:06.800000', '0:01:13.560000')]</t>
+          <t>('0:00:02.680000', '0:00:03.940000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:05.708194', '0:00:10.061936')]</t>
+          <t>('0:00:34.550000', '0:00:49.160000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=66.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=2.68</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-35#t=34.55</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:7JXfQmzQwnGvbAVnV9ODpn</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:31.910000', '0:00:44.110000')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:25.720000', '0:00:51.960000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=25.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -721,453 +745,477 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:11.210000', '0:00:14.450000')]</t>
+          <t>('0:00:10.130000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:10.400000', '0:00:20.240000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=10.4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_24</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:min7', 'A:min7']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:min7', 'Bb:min7']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:39.004285', '0:00:53.795396')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:02.870000', '0:00:20.530000')]</t>
+          <t>('0:01:22.290863', '0:01:33.575761')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=39.004285']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-24#t=2.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'Bb:7', 'F']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C:7', 'G']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:12.300000', '0:00:17.160000')]</t>
+          <t>('0:00:00.860000', '0:00:05.140000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:43.320000', '0:00:50.490000')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=12.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=43.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F', 'C:7', 'F']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:14.450000')]</t>
+          <t>('0:00:40.820000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:05.760000', '0:01:17.920000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=9.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=65.76']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_197</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>['C:min', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Bb', 'C:maj', 'F:maj']]</t>
+          <t>['G:min', 'A:7/C#', 'D:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:16.088141', '0:00:27.709728')]</t>
+          <t>('0:00:56.943000', '0:01:03.992000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:03.861000', '0:01:06.732000')]</t>
+          <t>('0:00:11.600000', '0:00:17.420000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-197#t=16.088141']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=56.943</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.861']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=11.6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:43.610000', '0:00:45.410000')]</t>
+          <t>('0:00:36.400000', '0:00:41.700000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:06.610000', '0:00:10.460000')]</t>
+          <t>('0:00:37.840000', '0:00:42.820000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=6.61']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=37.84</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_13</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>['G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:23.629455', '0:00:29.120975')]</t>
+          <t>('0:00:55.230000', '0:01:05.420000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:15', '0:00:20.280000')]</t>
+          <t>('0:00:08.600000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=23.629455']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=15.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=8.6</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>isophonics_245</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>['B:min', 'E:min/B', 'B:min', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F#:min', 'B:min', 'F#:min', 'A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:00:26.200000', '0:00:35.780000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:38.578071', '0:00:46.066507')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=38.578071</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['B', 'E', 'B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.880000', '0:00:06.560000'), ('0:00:09.620000', '0:00:14.180000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000'), ('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:00:01.421269', '0:00:26.162131')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>isophonics_246</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['D/3', 'F#:min', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['C/5', 'E:min', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:07.700000', '0:01:14.300000')]</t>
+          <t>('0:01:15.273854', '0:01:20.644910')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
+          <t>('0:01:54.131000', '0:01:58.702000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=67.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-246#t=75.273854</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-101#t=30.8']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=114.131</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
